--- a/dbm-ui/backend/ticket/exclusive_ticket.xlsx
+++ b/dbm-ui/backend/ticket/exclusive_ticket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaomugong/Works/tencent/dbs/blueking-dbm/dbm-ui/backend/ticket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FA895D-2D7A-054C-9A28-EA7A86C3F8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229FEB3B-832D-1E47-82E9-BFAB20A33FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1680" yWindow="-21100" windowWidth="32040" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_mysql_exclusive" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="66">
   <si>
     <t>能否并行</t>
   </si>
@@ -222,6 +222,52 @@
   </si>
   <si>
     <t>Pulsar 集群删除</t>
+  </si>
+  <si>
+    <t>Redis 集群容量变更</t>
+  </si>
+  <si>
+    <t>Redis 整机替换</t>
+  </si>
+  <si>
+    <t>Redis 主从故障切换</t>
+  </si>
+  <si>
+    <t>Redis Proxy扩容</t>
+  </si>
+  <si>
+    <t>Redis Proxy缩容</t>
+  </si>
+  <si>
+    <t>Redis 集群数据构造</t>
+  </si>
+  <si>
+    <t>Redis 数据构造记录删除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 集群分片数变更</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 集群类型变更</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 集群数据复制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 构造实例数据回写</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 数据校验与修复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 新增slave节点</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -665,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -5625,18 +5671,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32">
+    <row r="1" spans="1:23" ht="49" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5667,8 +5714,47 @@
       <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32">
+      <c r="K1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="33" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -5699,8 +5785,47 @@
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="32">
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="33" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5731,8 +5856,47 @@
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="32">
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="33" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -5763,8 +5927,47 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="32">
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="33" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -5795,8 +5998,47 @@
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="32">
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="33" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -5827,8 +6069,47 @@
       <c r="J6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="32">
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="33" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -5859,8 +6140,47 @@
       <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="32">
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="33" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -5891,8 +6211,47 @@
       <c r="J8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="32">
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="33" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -5923,8 +6282,47 @@
       <c r="J9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="32">
+      <c r="K9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="33" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -5954,6 +6352,968 @@
       </c>
       <c r="J10" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="49" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="33" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="49" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="33" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="33" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="49" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="49" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="49" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="49" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="49" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="49" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="49" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="49" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6377,7 +7737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51380A97-C090-4345-BAF7-755EB452DCA3}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
